--- a/00_scripts/multieggnogtestscriptmaker.xlsx
+++ b/00_scripts/multieggnogtestscriptmaker.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobyn\source\tnunn_research\00_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5897DE-BFE3-4F7A-A935-3DFEE85B773C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56474762-D6F3-4AAB-87A4-19156200F7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{73A1408D-112E-49F0-BDFD-98DC942AB0AC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{73A1408D-112E-49F0-BDFD-98DC942AB0AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="eggnog behind the scenes" sheetId="2" r:id="rId2"/>
+    <sheet name="eggnogreadyscripts" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>1Dt100g</t>
   </si>
@@ -102,6 +104,96 @@
   </si>
   <si>
     <t>#!/bin/bash</t>
+  </si>
+  <si>
+    <t>#SBATCH --cpus-per-task=10           # number of cpus per task</t>
+  </si>
+  <si>
+    <t>#SBATCH --mail-user=0rtpjri2@anonaddy.me</t>
+  </si>
+  <si>
+    <t>#SBATCH --mail-type=ALL</t>
+  </si>
+  <si>
+    <t>jerry</t>
+  </si>
+  <si>
+    <t>tom</t>
+  </si>
+  <si>
+    <t>rick</t>
+  </si>
+  <si>
+    <t>gary</t>
+  </si>
+  <si>
+    <t>waltur</t>
+  </si>
+  <si>
+    <t>jenny</t>
+  </si>
+  <si>
+    <t>michelle</t>
+  </si>
+  <si>
+    <t>donna</t>
+  </si>
+  <si>
+    <t>amy</t>
+  </si>
+  <si>
+    <t>Wilhelmina</t>
+  </si>
+  <si>
+    <t>## we need two columns, one for just the name, and another for the fasta file (because of that alphanumeric bit added after the accession id) ##</t>
+  </si>
+  <si>
+    <t>## I cut out the txts because that is going to get annoying at scale ##</t>
+  </si>
+  <si>
+    <t>jerry_ABC_genomic.fna</t>
+  </si>
+  <si>
+    <t>tom_ABC_genomic.fna</t>
+  </si>
+  <si>
+    <t>rick_ABC_genomic.fna</t>
+  </si>
+  <si>
+    <t>gary_ABC_genomic.fna</t>
+  </si>
+  <si>
+    <t>waltur_ABC_genomic.fna</t>
+  </si>
+  <si>
+    <t>jenny_ABC_genomic.fna</t>
+  </si>
+  <si>
+    <t>michelle_ABC_genomic.fna</t>
+  </si>
+  <si>
+    <t>donna_ABC_genomic.fna</t>
+  </si>
+  <si>
+    <t>amy_ABC_genomic.fna</t>
+  </si>
+  <si>
+    <t>Wilhelmina_ABC_genomic.fna</t>
+  </si>
+  <si>
+    <t>Accession</t>
+  </si>
+  <si>
+    <t>Fasta Name</t>
+  </si>
+  <si>
+    <t>Output Dir</t>
+  </si>
+  <si>
+    <t>## my thought process was I would download all of them, slap all 1800 names here and as I work down the list just delete the ones I have done</t>
+  </si>
+  <si>
+    <t>## I needed another column for the output dir, but this one is only the 10 for this group, because of the way ive done this, it cant be scaled ##</t>
   </si>
 </sst>
 </file>
@@ -154,6 +246,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BC0D9015-8553-494E-B734-4BE6B6187C0C}" name="Table2" displayName="Table2" ref="A1:B11" totalsRowShown="0">
+  <autoFilter ref="A1:B11" xr:uid="{BC0D9015-8553-494E-B734-4BE6B6187C0C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{824A0E38-E29B-4406-8644-7E5DEC015582}" name="Accession"/>
+    <tableColumn id="2" xr3:uid="{7AE280CA-869F-4F44-96AD-3B362E73A304}" name="Fasta Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{36C95959-2D5F-46DC-9CB8-CAEC4FD55DEF}" name="Table3" displayName="Table3" ref="D1:D11" totalsRowShown="0">
+  <autoFilter ref="D1:D11" xr:uid="{36C95959-2D5F-46DC-9CB8-CAEC4FD55DEF}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{EC14FFE4-B40A-4E30-A18E-056E3C1E087F}" name="Output Dir">
+      <calculatedColumnFormula>_xlfn.TEXTAFTER(eggnogreadyscripts!A19, " ")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE83F613-6B97-42E6-B686-E97B9A2556A2}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -637,4 +752,386 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF9C069-5633-4F5C-9D46-A586F935EBF0}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.73046875" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.3984375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="112.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.TEXTAFTER(eggnogreadyscripts!A19, " ")</f>
+        <v>jerry_new</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="str">
+        <f>_xlfn.TEXTAFTER(eggnogreadyscripts!A20, " ")</f>
+        <v>tom_new</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="str">
+        <f>_xlfn.TEXTAFTER(eggnogreadyscripts!A21, " ")</f>
+        <v>rick_new</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="str">
+        <f>_xlfn.TEXTAFTER(eggnogreadyscripts!A22, " ")</f>
+        <v>gary_new</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="str">
+        <f>_xlfn.TEXTAFTER(eggnogreadyscripts!A23, " ")</f>
+        <v>waltur_new</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="str">
+        <f>_xlfn.TEXTAFTER(eggnogreadyscripts!A24, " ")</f>
+        <v>jenny_new</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.TEXTAFTER(eggnogreadyscripts!A25, " ")</f>
+        <v>michelle_new</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.TEXTAFTER(eggnogreadyscripts!A26, " ")</f>
+        <v>donna_new</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.TEXTAFTER(eggnogreadyscripts!A27, " ")</f>
+        <v>amy_new</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.TEXTAFTER(eggnogreadyscripts!A28, " ")</f>
+        <v>Wilhelmina_new</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E270579B-57DD-4158-B7F9-A41D5738F7C2}">
+  <dimension ref="A1:A39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="255.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="str">
+        <f>_xlfn.CONCAT("mkdir ", 'eggnog behind the scenes'!A2, "_new")</f>
+        <v>mkdir jerry_new</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="str">
+        <f>_xlfn.CONCAT("mkdir ", 'eggnog behind the scenes'!A3, "_new")</f>
+        <v>mkdir tom_new</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="str">
+        <f>_xlfn.CONCAT("mkdir ", 'eggnog behind the scenes'!A4, "_new")</f>
+        <v>mkdir rick_new</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="str">
+        <f>_xlfn.CONCAT("mkdir ", 'eggnog behind the scenes'!A5, "_new")</f>
+        <v>mkdir gary_new</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="str">
+        <f>_xlfn.CONCAT("mkdir ", 'eggnog behind the scenes'!A6, "_new")</f>
+        <v>mkdir waltur_new</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="str">
+        <f>_xlfn.CONCAT("mkdir ", 'eggnog behind the scenes'!A7, "_new")</f>
+        <v>mkdir jenny_new</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="str">
+        <f>_xlfn.CONCAT("mkdir ", 'eggnog behind the scenes'!A8, "_new")</f>
+        <v>mkdir michelle_new</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="str">
+        <f>_xlfn.CONCAT("mkdir ", 'eggnog behind the scenes'!A9, "_new")</f>
+        <v>mkdir donna_new</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="str">
+        <f>_xlfn.CONCAT("mkdir ", 'eggnog behind the scenes'!A10, "_new")</f>
+        <v>mkdir amy_new</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="str">
+        <f>_xlfn.CONCAT("mkdir ", 'eggnog behind the scenes'!A11, "_new")</f>
+        <v>mkdir Wilhelmina_new</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="str">
+        <f>_xlfn.CONCAT("emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/", 'eggnog behind the scenes'!B2, " -o ",'eggnog behind the scenes'!A2, " --output_dir /home/b.tbn23vlc/", 'eggnog behind the scenes'!D2, "/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem")</f>
+        <v>emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/jerry_ABC_genomic.fna -o jerry --output_dir /home/b.tbn23vlc/jerry_new/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="str">
+        <f>_xlfn.CONCAT("emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/", 'eggnog behind the scenes'!B3, " -o ",'eggnog behind the scenes'!A3, " --output_dir /home/b.tbn23vlc/", 'eggnog behind the scenes'!D3, "/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem")</f>
+        <v>emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/tom_ABC_genomic.fna -o tom --output_dir /home/b.tbn23vlc/tom_new/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="str">
+        <f>_xlfn.CONCAT("emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/", 'eggnog behind the scenes'!B4, " -o ",'eggnog behind the scenes'!A4, " --output_dir /home/b.tbn23vlc/", 'eggnog behind the scenes'!D4, "/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem")</f>
+        <v>emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/rick_ABC_genomic.fna -o rick --output_dir /home/b.tbn23vlc/rick_new/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="str">
+        <f>_xlfn.CONCAT("emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/", 'eggnog behind the scenes'!B5, " -o ",'eggnog behind the scenes'!A5, " --output_dir /home/b.tbn23vlc/", 'eggnog behind the scenes'!D5, "/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem")</f>
+        <v>emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/gary_ABC_genomic.fna -o gary --output_dir /home/b.tbn23vlc/gary_new/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="str">
+        <f>_xlfn.CONCAT("emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/", 'eggnog behind the scenes'!B6, " -o ",'eggnog behind the scenes'!A6, " --output_dir /home/b.tbn23vlc/", 'eggnog behind the scenes'!D6, "/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem")</f>
+        <v>emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/waltur_ABC_genomic.fna -o waltur --output_dir /home/b.tbn23vlc/waltur_new/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="str">
+        <f>_xlfn.CONCAT("emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/", 'eggnog behind the scenes'!B7, " -o ",'eggnog behind the scenes'!A7, " --output_dir /home/b.tbn23vlc/", 'eggnog behind the scenes'!D7, "/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem")</f>
+        <v>emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/jenny_ABC_genomic.fna -o jenny --output_dir /home/b.tbn23vlc/jenny_new/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="str">
+        <f>_xlfn.CONCAT("emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/", 'eggnog behind the scenes'!B8, " -o ",'eggnog behind the scenes'!A8, " --output_dir /home/b.tbn23vlc/", 'eggnog behind the scenes'!D8, "/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem")</f>
+        <v>emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/michelle_ABC_genomic.fna -o michelle --output_dir /home/b.tbn23vlc/michelle_new/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="str">
+        <f>_xlfn.CONCAT("emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/", 'eggnog behind the scenes'!B9, " -o ",'eggnog behind the scenes'!A9, " --output_dir /home/b.tbn23vlc/", 'eggnog behind the scenes'!D9, "/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem")</f>
+        <v>emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/donna_ABC_genomic.fna -o donna --output_dir /home/b.tbn23vlc/donna_new/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="str">
+        <f>_xlfn.CONCAT("emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/", 'eggnog behind the scenes'!B10, " -o ",'eggnog behind the scenes'!A10, " --output_dir /home/b.tbn23vlc/", 'eggnog behind the scenes'!D10, "/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem")</f>
+        <v>emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/amy_ABC_genomic.fna -o amy --output_dir /home/b.tbn23vlc/amy_new/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="str">
+        <f>_xlfn.CONCAT("emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/", 'eggnog behind the scenes'!B11, " -o ",'eggnog behind the scenes'!A11, " --output_dir /home/b.tbn23vlc/", 'eggnog behind the scenes'!D11, "/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem")</f>
+        <v>emapper.py -m diamond --itype genome --genepred prodigal -i /home/b.tbn23vlc/fasta_files/Wilhelmina_ABC_genomic.fna -o Wilhelmina --output_dir /home/b.tbn23vlc/Wilhelmina_new/ --cpu 0 --dmnd_ignore_warnings --evalue 0.001 --score 60 --pident 40 --query_cover 20 --subject_cover 20 --tax_scope auto --target_orthologs all --go_evidence non-electronic --pfam_realign none --report_orthologs --decorate_gff yes --excel --dbmem</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>